--- a/OperatingSystem/OperatingSystemConceptsHighLevelChart.xlsx
+++ b/OperatingSystem/OperatingSystemConceptsHighLevelChart.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Computer-System Operation</t>
   </si>
@@ -58,12 +58,6 @@
   </si>
   <si>
     <t>Read Linux Nemespaces, Cgroups and Containers along with Bigdata Hadoop YARN concepts</t>
-  </si>
-  <si>
-    <t>*The CPU can load instructions only from main memory, so any programs to run must be stored there. Main memory commonly is implemented in a semiconductor technology called dynamic random-access memory (DRAM).
-*All forms of memory provide an array of bytes. Each byte has its own address. Interaction is achieved through a sequence of load or store instructions to specific memory addresses. The load instruction moves a byte or word from main memory to an internal register within the CPU, whereas the store instruction moves the content of a register to main memory.
-* A typical "Instruction-Execution" Cycle using Von Neumann Architecture.
-* Need for Secondary storage over the promary storage. and their varients hierarchy.</t>
   </si>
   <si>
     <t xml:space="preserve">* About device controller and SCSI controller. 
@@ -130,13 +124,227 @@
   <si>
     <t xml:space="preserve">Operating-System Structure </t>
   </si>
+  <si>
+    <t>*The CPU can load instructions only from main memory, so any programs to run must be stored there. Main memory commonly is implemented in a semiconductor technology called dynamic random-access memory (DRAM).
+*All forms of memory provide an array of bytes. Each byte has its own address. Interaction is achieved through a sequence of load or store instructions to specific memory addresses. The load instruction moves a byte or word from main memory to an internal register within the CPU, whereas the store instruction moves the content of a register to main memory.
+* A typical "Instruction-Execution" Cycle using Von Neumann Architecture.
+* Need for Secondary storage over the primary storage. and their varients hierarchy.</t>
+  </si>
+  <si>
+    <t>* An OS provide an environment within which programs are executed.
+* The most important aspect of an OS is Multiprogram through which OS keeps CPU and I/O devices always busy by organizing jobs (code and data). This can be achieved through OS by keeping all jobs in "Job Pool" until allocating into Main memory.
+* Its OS responsibility to switching between the jobs in main memory (though jobs may have to wait for some task, like I/O operation) to keep CPU busy one or another way using Multiprogramming.
+* Multiprogramed System doesn't provide for user interaction with computer system. We can achieve this by Time sharing or Multitasking system which is also logical extension of Multiprogramming.
+* We can achieve folllwoing features through Time Sharing System.
+1) We can interact with each program while it is running. Hence it provides communication between user and the system.
+2) response time is short.
+3) It uses CPU scheduling and Multiprogramming to provide each user with small potion of time-shared computer. It allows many users to share computer simultaneously by switching between user process (A program loaded into memory and executing is called process).
+4) Job Scheduling and CPU Scheduling
+5) Getting reasonable response time using Swapping and Virtual Memomy with logical memory.
+6) File system on collection of disks.
+7) Mechanism for protecting resources from inappropriate use.
+8) Mechanism for job synchronization and communication to ensure orderly execution.
+9) To over come deadlock.</t>
+  </si>
+  <si>
+    <t>Operating-System Operation
+         Modern OS are Interrupt driven. Events are signaled by Interrupt or Trap(Exception). For each type of interrupt, separate segments of code in the OS i.e. Interrupt Service Routine is triggered by System Call to determine what action should be taken. Since OS and the users share the hardware and software resources of the computer system, we need to make sure that an error in a user program could cause problems only for the one program running.</t>
+  </si>
+  <si>
+    <t>Dual-Mode and Multimode Operation</t>
+  </si>
+  <si>
+    <t>* We must be able to distinguish between the execution of operating-system code and userdefined code.
+* Here Hardware supports the differentiate among various modes of execution.
+* At the very least, we need two separate modes of operation: user mode and kernel mode (also called supervisor mode, system mode, or privileged mode).
+* A bit, called the mode bit, is added to the hardware of the computer to indicate the current mode: kernel (0) or user (1).
+* This errant user protection is accomplishing  by designating some of the machine instructions that may cause harm as privileged instructions. The hardware allows privileged instructions to be executed only in kernel mode. If an attempt is made to execute a privileged instruction in user mode, the hardware does not execute the instruction but rather treats it as illegal and traps it to the operating system.</t>
+  </si>
+  <si>
+    <t>Timer</t>
+  </si>
+  <si>
+    <t>* We must ensure that the operating system maintains control over the CPU. We cannot allow a user program to get stuck in an infinite loop or to fail to call system services and never return control to the operating system. To accomplish this goal, we can use a timer. A timer can be set to interrupt the computer after a specified period.
+* We can use the timer to prevent a user program from running too long.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Process Management:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    It is possible to provide system calls that allow processes to create subprocesses to execute concurrently. Resources like CPU time, Memory, File and I/O devices are either given to the process when it is created or allocated to it while it is running. A single-threaded process has one program counter
+specifying the next instruction to execute. The CPU executes one instruction of the process after another, until the process completes. Further, at any time, one instruction at most is executed on behalf of the process. Although two Single-thread processes may be associated with the same program, they are nevertheless considered two separate execution sequences. A multithreaded process has multiple program counters, each pointing to the next instruction to execute for a given thread.</t>
+  </si>
+  <si>
+    <t>Memory Management</t>
+  </si>
+  <si>
+    <t>Main memory is a repository of quickly accessible data shared by the CPU and I/O devices. For a program to be executed, it must be mapped to absolute addresses and
+loaded into memory.As the program executes, it accesses program instructions and data from memory by generating these absolute addresses.</t>
+  </si>
+  <si>
+    <t>Storage Management:
+   To make the computer system convenient for users, the operating system provides a uniform, logical view of information storage. The operating system abstracts from the physical properties of its storage devices to define a logical storage unit, the file. The operating system maps files onto physical media and accesses these files via the storage devices.</t>
+  </si>
+  <si>
+    <t>File-System Manaement:</t>
+  </si>
+  <si>
+    <t>Mass-Storage Management:</t>
+  </si>
+  <si>
+    <t>Caching:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*The programmer (or compiler) implements the register-allocation and register-replacement algorithms to decide which information to keep in registers and which to keep in main
+memory.
+*The file-system data, which resides permanently on secondary
+storage, may appear on several levels in the storage hierarchy. At the highest level, the operating system may maintain a cache of file-system data in main
+memory.
+* </t>
+  </si>
+  <si>
+    <t>I/O Systems</t>
+  </si>
+  <si>
+    <t>Protection And Security:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Protection,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> then, is any mechanism for controlling the access of processes or users to the resources defined by a computer system. Protection can improve reliability by detecting latent errors at the interfaces between component subsystems.
+* It is the job of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>security</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to defend a system from external and internal attacks.
+* Protection and security require the system to be able to distinguish among all its users. Most operating systems maintain a list of user names and associated user identifiers (user IDs). In Windows parlance, this is a security ID (SID). These numerical IDs are unique, one per user. When a user logs in to the system, the authentication stage determines the appropriate user ID for the user. That user ID is associated with all of the user’s processes and threads. When an ID needs to be readable by a user, it is translated back to the user name via the user name list.
+* In some circumstances, we wish to distinguish among sets of users rather than individual users i.e. Group. Group functionality can be implemented as a system-wide list of group names and group identifiers. The user’s group IDs are also included in every associated process and thread.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Kernal Data Structures:
+This one OS implementation topic, the way data are structured in the system. Here we briefly describe several fundamental data structures used extensively in OS.</t>
+  </si>
+  <si>
+    <t>Lists, Stacks and Queues:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* Array: is a simple data structure. In array of bytes i.e. memory address if data item needs more than one byte then multiple bytes are allocated to the data item, and the item is addressed as (item number * item size). But array data structure is not valid in following scenarios like what if data may vary. what id data being removed and relative positions of other data items in array?
+* List:  After array the most fundamental Data structure is List. Here collection of data values/item are represent in sequence. we can achieve this structure through </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>linked list.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> like Single linked list, Double linked list and Circularly linked list. Linked list accommodate data items of varying size and allow easy insertion and deletion of items. Lists are used to construct more powerful data structures like Queue and Stack.
+* Stack: it is LIFO, push and pop,  The operations for inserting and removing items from a stack are known as push and pop, respectively. An operating system often uses a stack when invoking function calls. Parameters, local variables, and the return address are pushed onto the stack when a function is called; returning from the function call pops those items off the
+stack.
+*Queue: FIFO, tasks that are waiting to be run on an available CPU are often organized in queues.</t>
+    </r>
+  </si>
+  <si>
+    <t>Trees</t>
+  </si>
+  <si>
+    <t>* To represent data hierarchicaly
+* Data values are linked through parent-child relationship
+* General tree: parent may have unlimited number of childern.
+* In Binary tree: parent with two childern left and right.
+* In Binary Search Tree: left child &lt;= right child
+* Balanced Binary Search Tree: to over come performance issue of Binary search tree.
+* Linux uses a balanced binary search tree as part its CPU -scheduling algorithm.</t>
+  </si>
+  <si>
+    <t>Hash Functions and Maps</t>
+  </si>
+  <si>
+    <t>* A hash function takes data as its input, performs a numeric operation on this data, and returns a numeric value. This numeric value can then be used as an index into a table (typically an array) to quickly retrieve the data. Whereas
+searching for a data item through a list of size n can require up to O(n) comparisons in the worst case, using a hash function for retrieving data from table can be as good as O(1) in the worst case, depending on implementation details. Because of this performance, hash functions are used extensively in operating systems.
+* hash collision 
+* One use of a hash function is to implement a hash map, which associates (or maps) [key:value] pairs using a hash function.</t>
+  </si>
+  <si>
+    <t>Bitmaps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* A bitmap is a string of n binary digits that can be used to represent the status of n items.
+* Disk drives provide a nice illustration. A medium-sized
+disk drive might be divided into several thousand individual units, called disk blocks. A bitmap can be used to indicate the availability of each disk block.
+* </t>
+  </si>
+  <si>
+    <t>Computing environments:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -510,16 +718,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B2"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46" style="1" customWidth="1"/>
+    <col min="2" max="2" width="52.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="56.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="39.7109375" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
@@ -536,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -546,16 +754,16 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="225" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="105" x14ac:dyDescent="0.25">
@@ -564,48 +772,170 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="375" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="375" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A13:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/OperatingSystem/OperatingSystemConceptsHighLevelChart.xlsx
+++ b/OperatingSystem/OperatingSystemConceptsHighLevelChart.xlsx
@@ -9,11 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20295" windowHeight="8445" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20295" windowHeight="8445"/>
   </bookViews>
   <sheets>
-    <sheet name="StudyPlan" sheetId="2" r:id="rId1"/>
-    <sheet name="OSConcepts" sheetId="1" r:id="rId2"/>
+    <sheet name="OSConcepts" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Computer-System Operation</t>
   </si>
@@ -45,19 +44,6 @@
   <si>
     <t xml:space="preserve">1) Computer-System boot process. 
 </t>
-  </si>
-  <si>
-    <t>Complete OS Concepts along with Linux OS hands on.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Go through "Linux Kernel Networking: Implementation and Theory" by Rami Rosen.
-</t>
-  </si>
-  <si>
-    <t>Then study "Advanced Linux Kernel Networking" by Rami Rosen</t>
-  </si>
-  <si>
-    <t>Read Linux Nemespaces, Cgroups and Containers along with Bigdata Hadoop YARN concepts</t>
   </si>
   <si>
     <t xml:space="preserve">* About device controller and SCSI controller. 
@@ -372,16 +358,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -666,62 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="84.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,198 +665,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="225" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="7" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="240" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="C10" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="240" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="1" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="C15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="1" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="1" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="375" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="375" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="1" t="s">
+    </row>
+    <row r="19" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="375" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="C19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="1" t="s">
+    </row>
+    <row r="20" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="1" t="s">
+    <row r="21" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="210" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/OperatingSystem/OperatingSystemConceptsHighLevelChart.xlsx
+++ b/OperatingSystem/OperatingSystemConceptsHighLevelChart.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20295" windowHeight="8445"/>
   </bookViews>
   <sheets>
-    <sheet name="OSConcepts" sheetId="1" r:id="rId1"/>
+    <sheet name="Introduction" sheetId="1" r:id="rId1"/>
+    <sheet name="OS Structures" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Computer-System Operation</t>
   </si>
@@ -314,14 +315,192 @@
 * </t>
   </si>
   <si>
-    <t>Computing environments:</t>
+    <t>Traditional Computing:</t>
+  </si>
+  <si>
+    <t>* Web technologies and increasing WAN bandwidth are stretching the boundaries of traditional computing.
+* systems were either batch or interactive. Batch systems processed jobs in bulk, with predetermined input from files or other data sources. Interactive systems waited for input from users.</t>
+  </si>
+  <si>
+    <t>Mobile Computing:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*To provide access to on-line services, mobile devices typically use either IEEE standard 802.11 wireless or cellular data networks. </t>
+  </si>
+  <si>
+    <t>Distributed Systems</t>
+  </si>
+  <si>
+    <t>Computing Environments:
+How to use OS in different computing enviroments</t>
+  </si>
+  <si>
+    <t>* A distributed system is a collection of physically separate, possibly heterogeneous, computer systems that are networked to provide users with access to the various resources that the system maintains.
+* Access to a shared resource increases computation speed, functionality, data availability, and reliability.
+* The protocols that create a distributed system can greatly affect that system’s utility and popularity.
+* Networks vary by the protocols used, the distances between
+nodes, and the transport media. e.g. TCP/IP protocol for Internet network.
+* To an operating system, a network protocol simply needs an interface device—a network adapter, for example—with a device driver to manage it, as well as software to handle data.
+* Different networks like LAN, WAN, MAN may run one protocol or several protocols.
+* Some operating systems have taken the concept of networks and distributed systems further than the notion of providing network connectivity.
+* Network OS: is an operating system that provides features
+such as file sharing across the network, along with a communication scheme that allows different processes on different computers to exchange messages.
+* Adistributed operating system provides a less autonomous environment.</t>
+  </si>
+  <si>
+    <t>Client-Server Computing:</t>
+  </si>
+  <si>
+    <t>A) Compute-Server System: 
+A server running a database that responds to client requests for data is an example of such a system.
+B) File-server system:
+provides a file-system interface where clients can create, update, read, and delete files. An example of such a system is aweb server that delivers files to clients running web browsers.</t>
+  </si>
+  <si>
+    <t>Peer-to-Peer Computing:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* In this model, clients and servers are not distinguished from one another. Instead, all nodes within the system are considered peers, and each may act as either a client or a server, depending on whether it is requesting or providing a service. Peer-to-peer systems offer an advantage over traditional client-server systems. In a client-server system, the server is a bottleneck; but in a peer-to-peer system, services can be provided by several nodes distributed throughout the network.
+* Determining what services are available is accomplished in one of two general ways: 
+a) When a node joins a network, it registers its service with a centralized lookup service on the network. Any node desiring a specific service first contacts this centralized lookup service to determine which node provides the service. The remainder of the communication takes place between the client and the service provider. e.g. Napster Network
+b) An alternative scheme uses no centralized lookup service. Instead, a peer acting as a client must discover what node provides a desired service by broadcasting a request for the service to all other nodes in the network. The node (or nodes) providing that service responds to the peer making the request. To support this approach, a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>discovery protocol</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> must be provided that allows peers to discover services provided by other peers in the network. e.g. Gnutella System
+* Skype uses hybrid peer-to-peer approach. also uses technology voice over IP(VoIP).
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Virtualization:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* Virtualization is a technology that allows operating systems to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>run as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> applications within other operating systems.
+* Broadly speaking, virtualization is one member of a class of software that also includes emulation. Emulation is used when the source CPU type is different from the target CPU type. For example, when Apple switched from the IBM Power CPU to the Intel x86 CPU for its desktop and laptop computers, it included an emulation facility called “Rosetta,” which allowed applications compiled for the IBM CPU to run on the Intel CPU. That same concept can be extended to allow an entire operating system written for one platform to run on another.
+* If the source and target CPUs have similar performance levels, the emulated code can run much slower than the native code.
+* A common example of emulation occurs when a computer language is not compiled to native code but instead is either executed in its high-level form or translated to an intermediate form. This is known as interpretation. Some languages, such as BASIC, can be either compiled or interpreted. Java, in contrast, is always interpreted. Interpretation is a form of emulation in that the high-level language code is translated to native CPU instructions, emulating not another CPU but a theoretical virtual machine on which that language could run natively. Thus, we can run Java programs on “Java virtual machines,” but
+technically those virtual machines are Java emulators.
+* With virtualization, in contrast, an operating system that is natively compiled for a particular CPU architecture runs within another operating system also native to that CPU. Virtualization first came about on IBM mainframes as a method for multiple users to run tasks concurrently. Running multiple virtual machines allowed (and still allows) many users to run tasks on a system designed for a single user. Later, in response to problems with running multiple Microsoft Windows XP applications on the Intel x86 CPU, VMware created a new virtualization technology in the form of an application that ran on XP. That application ran one or more guest copies of Windows or other native x86 operating systems, each running its own applications. (See Figure 1.20.) Windows was the host operating system, and the VMware application was the virtual machine manager VMM. The VMM runs the guest operating systems, manages their resource use, and protects each guest from the others.
+* Within data centers, virtualization has become a common method of executing and managing computing environments.
+* VMMs like VMware, ESX, and Citrix XenServer no longer run on host operating systems but rather are the hosts.</t>
+    </r>
+  </si>
+  <si>
+    <t>Cloud Computing:</t>
+  </si>
+  <si>
+    <t>* Cloud computing is a type of computing that delivers computing, storage, and even applications as a service across a network. In some ways, it’s a logical extension of virtualization, because it uses virtualization as a base for its functionality.
+* Types of cloud computing:
+a) Public cloud  b) Private cloud  c) Hybrid Cloud  d) SaaS  e) PaaS f) IaaS
+* These cloud-computing types are not discrete, as a cloud computing environmentmayprovide a combination of several types.
+* There are traditional operating systems within many of the
+types of cloud infrastructure. Beyond those are the VMMs that manage the virtual machines in which the user processes run. At a higher level, the VMMs themselves are managed by cloud management tools, such as Vware vCloud Director and the open-source Eucalyptus toolset.</t>
+  </si>
+  <si>
+    <t>Real-Time Embedded Systems:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Embedded systems almost always run real-time operating systems. A real-time system is used when rigid time requirements have been placed on the operation of a processor or the flow of data; thus, it is often used as a control device in a dedicated application.
+* A real-time system has well-defined, fixed time constraints. Processing must be done within the defined constraints, or the system will fail. A real-time system functions correctly only if it returns the correct result within its time constraints.
+* Contrast this system with a time-sharing system, where it is desirable (but not mandatory) to respond quickly, or a batch system, which may have no time constraints at all.
+</t>
+  </si>
+  <si>
+    <t>Open-Source Operating Systems
+* Open-source operating systems are those available in source-code format rather than as compiled binary code.
+* Apple’s Mac OS X and iOS operating systems comprise a hybrid approach. They contain an open-source kernel named Darwin yet include proprietary, closed-source components as well.</t>
+  </si>
+  <si>
+    <t>History:</t>
+  </si>
+  <si>
+    <t>* To counter the move to limit software use and redistribution, Richard Stallman in 1983 started the GNU project to create a free, open-source, UNIXcompatible operating system. In 1985, he published the GNU Manifesto, which argues that all software should be free and open-sourced. He also formed the Free Software Foundation (FSF) with the goal of encouraging the free exchange of software source code and the free use of that software. Rather than copyright its software, the FSF “copylefts” the software to encourage sharing and improvement. The GNU General Public License (GPL) codifies copylefting and is a common license underwhich free software is released. Fundamentally, GPL requires that the source code be distributed with any binaries and that any changes made to the source code be released under the same GPL license.</t>
+  </si>
+  <si>
+    <t>Linux:</t>
+  </si>
+  <si>
+    <t>* The GNU project produced many UNIX-compatible tools, including compilers, editors, and utilities, but never released a kernel. In 1991, a student in Finland, Linus Torvalds, released a rudimentary UNIX-like kernel using the GNU compilers and tools and invited contributions worldwide.
+* The resulting GNU/Linux operating system has spawned hundreds of unique distributions, or custom builds, of the system. Major distributions include RedHat, SUSE, Fedora, Debian, Slackware, and Ubuntu. Distributions vary in function, utility, installed applications, hardware support, user interface,
+and purpose. For example, RedHat Enterprise Linux is geared to large commercial use. PCLinuxOS is a LiveCD—an operating system that can be booted and run from a CD-ROM without being installed on a system’s hard disk. One variant of PCLinuxOS—called “PCLinuxOS Supergamer DVD”—is a LiveDVD that includes graphics drivers and games. A gamer can run it on any compatible system simply by booting from the DVD. When the gamer is finished, a reboot of the system resets it to its installed operating system.</t>
+  </si>
+  <si>
+    <t>* It started in 1978 as a derivative of AT&amp;T’s UNIX. BSD UNIX’s developmentwas slowed by a lawsuit by AT&amp;T, but eventually a fully functional, open-source version, 4.4BSD-lite, was released in 1994.
+* Just as with Linux, there are many distributions of BSD UNIX, including FreeBSD, NetBSD, OpenBSD, and DragonflyBSD.
+* Darwin, the core kernel component of Mac OS X, is based on BSD UNIX and is open-sourced as well.</t>
+  </si>
+  <si>
+    <t>BSD Unix:</t>
+  </si>
+  <si>
+    <t>Solaries:</t>
+  </si>
+  <si>
+    <t>* Solaris is the commercial UNIX-based OS of Sun Microsystems.
+* Originally, Sun’s SunOS operating system was based on BSD UNIX. Sun moved to AT&amp;T’s System V UNIX as its base in 1991.
+* In 2005, Sun open-sourced most of the Solaris code as the OpenSolaris project.
+* Several groups interested in using OpenSolaris have started from that base and expanded its features. Their working set is Project Illumos, which has expanded from the OpenSolaris base to include more features and to be the basis for several products. Illumos is available at http://wiki.illumos.org.</t>
+  </si>
+  <si>
+    <t>Open-Source Systems as learning tools</t>
+  </si>
+  <si>
+    <t>* The operating system must ensure correct operation of the computer system. To prevent user programs frominterfering with the proper operation of the system, the hardware has two modes: user mode and kernel mode. Various instructions (such as I/O instructions and halt instructions) are privileged and
+can be executed only in kernel mode. The memory in which the operating system resides must also be protected from modification by the user. A timer prevents infinite loops. These facilities (dual mode, privileged instructions, memory protection, and timer interrupt) are basic building blocks used by operating systems to achieve correct operation.
+* Protection measures control the access of processes
+or users to the resources made available by the computer system. Security measures are responsible for defending a computer system from external or internal attacks.
+* Virtualization involves abstracting a computer’s hardware into several different execution environments. Cloud computing uses a distributed system to abstract services into a “cloud,” where users may access the services from remote locations.</t>
+  </si>
+  <si>
+    <t>Sumary:
+Don’t forgot to read entire Summary concept…</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,6 +512,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -649,10 +835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A4"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,13 +1040,135 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="C22" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="405" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="255" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="225" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="300" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="315" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="A30:A33"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B2"/>
@@ -871,4 +1179,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/OperatingSystem/OperatingSystemConceptsHighLevelChart.xlsx
+++ b/OperatingSystem/OperatingSystemConceptsHighLevelChart.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20295" windowHeight="8445"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20295" windowHeight="8445" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>Computer-System Operation</t>
   </si>
@@ -495,12 +495,1267 @@
     <t>Sumary:
 Don’t forgot to read entire Summary concept…</t>
   </si>
+  <si>
+    <t>In this chapter we are exploring on vantage of following OS aspects.
+* Services OS provides to users, processes and other systems
+* Interfaces available to users and programmers
+* OS components and their interconnections.</t>
+  </si>
+  <si>
+    <t>OS Services</t>
+  </si>
+  <si>
+    <t>User and OS Interface</t>
+  </si>
+  <si>
+    <t>Command-line Interface or Command Interpreters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Here entered commands to be performed by OS.
+* Some OS treat this Command Interpreter as part of kernel and some are as special program.
+* On OS where Command interpreters are choosen from available multiple list is to be called "shell" e.g. Bourne shell, Bourne-again shellh, korn shell, cshell etc...
+* Commands given in this level includes manupalating files like, deleting, creating, editing, list, print, copy and execute...
+* These command can be implemented in two ways...
+a) command interpreter containes code to executes given command.
+b) Executing command using OS Programs, here Command interpreter doesn't understand given command any way; it merely uses the comand to identify a file to be loaded into memory to execute given command.
+e.g. In UNIX to delete file...rm file.txt here would search for a file called rm, load the file into memory, and execute it with the parameter file.txt. The function associated with the rm command would be defined completely by the code in the file rm.
+</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>Some examples for open source graphical inteface environment are KDE and GNOME for Linix and Unix OS.
+And Some examples for Commercial version of UNIX are "Common Desktop Environment" (CDE) and X-Windows Systems</t>
+  </si>
+  <si>
+    <t>Choice of Interface</t>
+  </si>
+  <si>
+    <t>* Sys Admins and Power Users uses command line interpretors.
+* It typically is substantially removed from the actual system structure. The design of a useful and friendly user interface is therefore not a direct function of the operating system.</t>
+  </si>
+  <si>
+    <t>System Calls</t>
+  </si>
+  <si>
+    <t>* simple programs may make heavy use of the operating system. Frequently, systems execute thousands of system calls per second.
+* A programmer accesses an API via a library of code provided by the operating system.
+* Each operating system has its own name for each system call.
+* Behind the scenes, the functions that make up an API typically invoke the actual system calls on behalf of the application programmer.
+* Why would an application programmer prefer programming according to an API rather than invoking actual system calls? There are several reasons for doing so. One benefit concerns program portability. An application programmer designing a program using an API can expect her program to compile and run on any system that supports the same API.
+Furthermore, actual system calls can often be more detailed and difficult to work with than the API available to an application programmer. Nevertheless, there often exists a strong correlation between a function in the API and its associated system call within the kernel. In fact, many of the POSIX and Windows APIs are similar to the native system calls provided by the UNIX, Linux, and Windows operating systems.
+* For most programming languages, the run-time support system (a set of functions built into libraries included with a compiler) provides a systemcall interface that serves as the link to system calls made available by the operating system. The system-call interface intercepts function calls in the API and invokes the necessary system calls within the operating system. Typically, a number is associated with each system call, and the system-call interface maintains a table indexed according to these numbers. The system call interface then invokes the intended system call in the operating-system kernel and returns the status of the system call and any return values. most of the details of the operating-system interface are hidden from the programmer by the API and are managed by the run-time support library.
+* Three general methods are used to pass parameters to OS.
+-&gt; The simplest approach is to pass the parameters in registers.
+-&gt;  In some cases, however, there may be more parameters than registers. In these cases, the parameters are generally stored in a block, or table, in memory, and the address of the block is passed as a parameter in a register. This is the approach taken by Linux and Solaris. -&gt; Parameters also can be placed, or pushed, onto the stack by the program and popped off the stack by the operating system.</t>
+  </si>
+  <si>
+    <t>* OS provides certain services to programs and to the users of those programs.
+* Following are the functions provided by OS Services to Users.
+A) User Interface: Command Line Interface (CLI), Batch Interface and GUI.
+B) Program Execution:
+C) I/O Operations: 
+* For specific devices, special functions may be desired in OS to accomplish I/O operations during program execution.
+* For efficiency and protection, users usually cannot control I/O devices directly. Therefore, the operating system must provide a means to do I/O.
+D) File-System Manipulation:
+* Here OS include permissions management to allow or deny access to files or directories based on file ownership.
+E) Communications:
+* Here one process needs to exchange information with another process.
+Such communication may occur between processes that are executing on the same computer or between processes that are executing on different computer systems tied together by a computer network.
+* Communications implemented via...
+a) Shared Memory: Here two more processes read and write shared section of memory.
+b) Message Passing: here predined format information packets are moved between processes by OS.
+F) Error detection: 
+* The program must be able to end its execution, either normally or abnormally (indicating error). Hence OS needs to be detecting and correcting errors constantly. these errors may occur in...
+1) CPU and Memory hardware(such as memory eror and power failure)
+2) In I/O devices (such as parity error on disk, a network connection failure...)
+3) In the user program (such as an airthmetic overflow, illigal memory location access or too greate use of CPU time).
+* For each type of error, the OS should take the appropriate action
+to ensure correct and consistent computing. like...
+1) Sometimes, it has no choice but to halt the system. 
+2) At other times, it might terminate an error-causing
+process
+3) or return an error code to a process for the process to detect and
+possibly correct.
+* Following are the functions provided by OS Services to ensure efficient operation of system itself.
+A) Resource Allocation:
+The OS manages many different types of resources. 
+Some (such as CPU cycles, main memory, and file storage) may have special allocation code. For instance, in determining how best to use
+the CPU, operating systems have CPU-scheduling routines that take into
+account the speed of the CPU, the jobs that must be executed, the number of registers available, and other factors., whereas others (such as I/O devices) may have much more general request and release code. e.g. Theremay also be routines to allocate printers, USB storage drives, and other peripheral devices.
+B) Accounting: 
+We want to keep track of which users use how much and what kinds of computer resources.
+C) Protection and Security:
+When owners of information stored in a multiuser or networked computer system may want to control use of that information. Hence Protection involves ensuring that all access to system resources is controlled. And through Security we can authenticate users to access system resources by means of login features.</t>
+  </si>
+  <si>
+    <t>Types of System Calls.
+They are grouped roughly into 6 major categories</t>
+  </si>
+  <si>
+    <t>Process Control:
+* end and abort
+* load and execute
+* create and terminate process
+* get process attributes and set process attributes
+* wait for time
+* wait event, signal event
+* allocate and free memory</t>
+  </si>
+  <si>
+    <r>
+      <t>* A running program needs to be able to halt its execution either normally (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>end()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) or abnormally (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abort()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">).
+* A process or job executing one program may want to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">load() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>execute()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> another program.
+* An interesting question is where to return control when the loaded program terminates. This question is related to whether the existing program is lost, saved, or allowed to continue execution concurrently
+with the new program.
+* If control returns to the existing program when the new program terminates, we must save the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>memory image of the existing program</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; thus, we have effectively created a mechanism for one program to call another program. If both programs continue concurrently, we have created a new job or process to be multiprogrammed. Often, there is a system call specifically for this purpose (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>create process() or submit job()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).
+* Control of newly created process execution is done by</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> get process attributes() and set process attributes() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">for setting job's priority, its max allowable execution time... 
+* And terminate the process or job using </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">terminate_process() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">call.
+* Also use </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">wait_time(), wait_event() and signal_event() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">sys calls to control process or job executions.
+* Quite often, two or more processes may share data. To ensure the integrity of the data being shared, operating systems often provide system calls allowing a process to lock shared data. Then, no other process can access the data until the lock is released. Typically, such system calls include acquire </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lock()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>release_lock()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+ * An examples for variations in process and job control 
+a) Single-tasking system: MS-DOS OS
+b) Mutitasking-System: FreeBSD OS (uses </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fork(), exec(), exit()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sys calls).</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">File Manipulation/Management:
+* Create and Delete file
+* open and close file
+* read, write and reposition file
+* get file attributes and set file attributes
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* File operations can be done using </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>carete(), delete(), open(), read(), write(), reposition() and close()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Sys calls.
+* File attributes include the file name, file type, protection codes, accounting information, and so on. At least two system calls, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>get file attributes() and set file attributes()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, are required for this function.
+* Some OS provide many more calls, such as calls for file </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>move()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>copy()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Device Manipulation/Management:
+* Request and Release device
+* read, write and reposition
+* get device attributes and set device attributes
+* logically attach or detach devices</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* A process may need several resources to execute—main memory, disk drives, access to files, and so on.
+* The various resources controlled by the OS can be thought of as devices. Some of these devices are physical devices (for example, disk
+drives), while others can be thought of as abstract or virtual devices (for
+example, files).
+* Asystem with multiple users may require us to first </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>request()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a device, to ensure exclusive use of it. After we are finished with the device, we
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>release()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> it.
+* Once the device has been requested (and allocated to us), we can </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>read(), write()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and (possibly) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reposition()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the device, just as we can with files.
+*The user interface can also make files and devices appear to be similar, even though the underlying system calls are dissimilar. This is another example of the many design decisions that go into building an operating system and user interface.</t>
+    </r>
+  </si>
+  <si>
+    <t>Information Maintenance:
+* Get time or date, set time or date.
+* get system data and set system data.
+* get process, file, or device attributes.
+* set process, file, or device attributes.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* Many system calls exist simply for the purpose of transferring information between the user program and the operating system. E.g. current </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>time(), date()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Other system calls may return information about the system, such as the number of current users, the version number of the operating system, the amount of free memory or disk space, and so on.
+* Another set of system calls is helpful in debugging a program. Many
+systems provide system calls to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dump()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> memory. This provision is useful for debugging. A program trace lists each system call as it is executed.
+* Even microprocessors provide a CPU mode known as single step, in which a trap is executed by the CPU after every instruction. The trap is usually caught by a debugger.
+* Many OS provide a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>time profile of a program</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to indicate the amount of time that the program executes at a particular location or set of locations. A time profile requires either a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tracing facility</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>regular timer
+interrupts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. At every occurrence of the timer interrupt, the value of the program counter is recorded. With sufficiently frequent timer interrupts, a statistical picture of the time spent on various parts of the program can be obtained.
+* Generally, calls are also used to reset the process information (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>get process attributes()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>set process attributes()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <t>Communications:
+* create, delete communication connection
+* send, receive messages
+* trasfer status information
+* attatch or detach remote devices.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* There are two common models of interprocess communication: the message passing model and the shared-memory model.
+A) Message-Passing Model:
+-&gt; Messages can be exchanged between the processes either directly
+or indirectly through a common mailbox.
+-&gt; Before communication can take place, a connection must be opened. The name of the other communicator must be known, be it another process on the same system or a process on another computer connected by a communications network. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>host name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> has </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>network identifier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> such as IP address. Similarly, each process has a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>process
+name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and this name is translated into an identifier by which the operating system can refer to the process. The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>get hostid()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>get processid()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> system calls do this translation. The identifiers are then passed to the general purpose </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>open()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>close()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> calls provided by the file system or to specific </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>open connection()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>close connection()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> system calls, depending on the system’s model of communication. The recipient process usually must give its permission for communication to take place with an accept </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>connection()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> call.
+-&gt; Most processes that will be receiving connections are </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>special-purpose
+daemons</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,which are system programs provided for that purpose. They execute a wait for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>connection()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> call and are awakened when a connection is made.
+-&gt; The source of the communication, known as the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> client</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and the receiving daemon, knownas a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, then exchange messages by using read </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>message()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and write </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>message()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> system calls.
+-&gt; The close </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>connection()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> call terminates the communication.
+-&gt; It is useful for exchanging smaller amounts of data, because no conflicts need be avoided. It is also easier to implement than is shared memory for intercomputer communication.
+B) Shared-Memory Model:
+-&gt; In the shared-memory model, processes use </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shared_memory_create()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shared_memory_attach()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> system calls to create and gain access to regions of memory owned by other processes.
+-&gt; Recall that, normally, the operating system tries to prevent one process from accessing another process’s memory. Shared memory requires that two or more processes agree to remove this restriction. They can then exchange information by reading and writing data in the shared areas.
+-&gt; The form of the data is determined by the processes and is not under the operating system’s control. The processes are also responsible for
+ensuring that they are not writing to the same location simultaneously.
+-&gt; It allows maximum speed and convenience of communication, since it
+can be done at memory transfer speeds when it takes place within a computer.
+-&gt; Problems exist, however, in the areas of protection and synchronization between the processes sharing memory.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Protection:
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* Protection provides a mechanism for controlling access to the resources provided by a computer system.
+* Typically, system calls providing protection include </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>set_permission()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>get_permission()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, which manipulate the permission settings of
+resources such as files and disks. The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>allow_user()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>deny_user()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> system calls specify whether particular users can—or cannot—be allowed access to certain resources.</t>
+    </r>
+  </si>
+  <si>
+    <t>System Programs</t>
+  </si>
+  <si>
+    <t>* System Programs are also known as "Sytesm Utilities" which provides convenient environment for program development and execution. Some of them are simply user interfaces to system calls. 
+* Following are categories of System Programs.
+A) File management: 
+These programs create, delete, copy, rename, print, dump, list, and generally manipulate files and directories.
+B) Status Information:
+-&gt; Some programs simply ask the system for the date, time, amount of available memory or disk space, number of users, or similar status information.
+-&gt; Others are more complex, providing detailed performance, logging, and debugging information. Typically, these programs format and print the output to the terminal or other output devices or files or display it in a window of the GUI.
+-&gt; Some systems also support a registry, which is used to store and retrieve configuration information.
+C) File Modification:
+There may also be special commands to search contents of files or perform transformations of the text.
+D) Programming-language support:
+Compilers, assemblers, debuggers, and interpreters for common programming languages (such as C, C++, Java, and PERL) are often provided with the operating system or available as a separate download.
+E) Program loading and execution:
+The OS may provide absolute loaders, relocatable loaders, linkage editors, and overlay loaders. Debugging systems for either higher-level languages or machine language are needed as well.
+F) Communications:
+These programs provide the mechanism for creating virtual connections among processes, users, and computer systems. They allow users to send messages to one another’s screens, to browse Web pages, to send e-mail messages, to log in remotely, or to transfer files from one machine to another.
+G) Background Services:
+-&gt; All general-purpose systems have methods for launching certain system-program processes at boot time. Some of these processes terminate after completing their tasks, while others continue to run until the system is halted.
+-&gt; Constantly running system-program processes are known as services, subsystems, or daemons.
+e.g. 
+* A system needed a service to listen for network connections in order to connect those requests to the correct processes.
+* Other examples include process schedulers that start processes according to a specified schedule
+* system error monitoring services
+* and print servers.
+-&gt; In addition, operating systems that run important activities in user context rather than in kernel context may use daemons to run these
+activities.</t>
+  </si>
+  <si>
+    <t>Application Programs</t>
+  </si>
+  <si>
+    <t>* Along with system programs, most operating systems are supplied with
+programs that are useful in solving common problems or performing common operations. Such application programs include Web browsers, word processors and text formatters, spreadsheets, database systems, compilers, plotting and statistical-analysis packages, and games.</t>
+  </si>
+  <si>
+    <t>OS Design and Implementation:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,6 +1774,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -544,7 +1805,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -554,6 +1815,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -837,8 +2101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A10"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,12 +2447,147 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="64.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="64.7109375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="285" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="285" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="345" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A7:A12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/OperatingSystem/OperatingSystemConceptsHighLevelChart.xlsx
+++ b/OperatingSystem/OperatingSystemConceptsHighLevelChart.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t>Computer-System Operation</t>
   </si>
@@ -1749,6 +1749,105 @@
   </si>
   <si>
     <t>OS Design and Implementation:</t>
+  </si>
+  <si>
+    <t>Design Goals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Before design we have to define goals and specifications.
+* At the highest level, the design of the system will be affected by the choice of hardware and the type of system: batch, time sharing, single user, multiuser, distributed, real time, or general purpose.
+* Design requirements can, however, be divided into two basic groups:
+user goals and system goals.
+</t>
+  </si>
+  <si>
+    <t>Mechanisms and Policies</t>
+  </si>
+  <si>
+    <t>* One important principle is the separation of policy from mechanism. Mechanisms determine how to do something; policies determine what will be done. For example, the timer construct (see Section 1.5.2) is a mechanism for ensuring CPU protection, but deciding how long the timer is to be set for a particular user is a policy decision.</t>
+  </si>
+  <si>
+    <t>Implementation</t>
+  </si>
+  <si>
+    <t>* Early operating systems were written in assembly language.
+* Nowdays most are written in a higher-level language such as C or an even higher-level language such as C++.
+* Actually, an operating system can be written in more than one language. The lowest levels of the kernel might be assembly language. Higher-level routines might be in C, and system programs might be in C or C++, in interpreted scripting languages like PERL or Python, or in shell scripts. In fact, a given Linux distribution probably includes programs written in all of those languages.
+* Master Control Program (MCP) OS written in Assembly language.
+* MULTICS OS is written in System Programming language PL/1.
+* The Linux and Windows operating system kernels are written mostly in C, although there are some small sections of assembly code for device drivers and for saving and restoring the state of registers.
+* MS-DOS was written in Intel 8088 assembly language. (It runs natively on Intel X86 family of CPUs)
+* The Linux operating system, in contrast, is written mostly in C and is available natively on a number of different CPUs, including Intel X86, Oracle SPARC, and IBMPowerPC.
+* major performance improvements in operating systems are more likely to be the result of better data structures and algorithms than of excellent assembly-language code.
+* In addition, although operating systems are large, only a small amount of the code is critical to high performance; the interrupt handler, I/O manager, memory manager, and CPU scheduler are probably the most critical routines.</t>
+  </si>
+  <si>
+    <t>OS Structure</t>
+  </si>
+  <si>
+    <t>Simple Structure</t>
+  </si>
+  <si>
+    <t>* MS-DOS is an example, it was written to provide most functionality in least space, so it was not carefully divided into modules.
+* Another example of limited structuring is the original UNIX operating
+system. Like MS-DOS, UNIX initially was limited by hardware functionality. It consists of two separable parts: the kernel and the system programs. Here The kernel provides the file system, CPU scheduling, memory management, and other operating-system functions through system calls.</t>
+  </si>
+  <si>
+    <t>Layered Approach</t>
+  </si>
+  <si>
+    <t>* Implementers have more freedom in changing the inner workings
+of the system and in creating modular operating systems. Under a topdown approach, the overall functionality and features are determined and are separated into components.
+*A system can be made modular in many ways. One method is the layered approach, in which the operating system is broken into a number of layers (levels). The bottom layer (layer 0) is the hardware; the highest (layer N) is the user interface.</t>
+  </si>
+  <si>
+    <t>Microkernels</t>
+  </si>
+  <si>
+    <t>* In the mid-1980s, researchers at Carnegie Mellon University developed an operating system called Mach that modularized the kernel using the microkernel approach. This method structures the operating system by removing all nonessential components fromthe kernel and implementing them as system and user-level programs.
+* There is little consensus regarding which services should remain in the
+kernel and which should be implemented in user space.
+* Microkernels provide minimal process and memory management, in addition to a communication facility i.e. Interprocess Communications, Memory Management and CPU Scheduling/Process management.
+* The main function of the microkernel is to provide communication between the client program and the various services that are also running in user space. Communication is provided through message passing,
+* One benefit of the microkernel approach is that it makes extending
+the operating system easier. All new services are added to user space and consequently do not require modification of the kernel. When the kernel does have to be modified, the changes tend to be fewer, because the microkernel is a smaller kernel. The resulting operating system is easier to port from one hardware design to another. The microkernel also provides more security and reliability, since most services are running as user—rather than kernel— processes. If a service fails, the rest of the operating system remains untouched.</t>
+  </si>
+  <si>
+    <t>Modules</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>* Perhaps the best current methodology for operating-system design involves using loadable kernel modules.
+* Here, the kernel has a set of core components and links in additional services via modules, either at boot time or during run time. This type of design is common in modern implementations of UNIX, such as Solaris, Linux, and Mac OS X, as well as Windows.
+* Linux also uses loadable kernel modules, primarily for supporting device drivers and file systems.</t>
+  </si>
+  <si>
+    <t>Hybrid Systems</t>
+  </si>
+  <si>
+    <t>* To address performance, security, and usability issues we need to combine different OS structures and resulting into Hybrid OS.
+* For example, both Linux and Solaris are monolithic, because having the operating system in a single address space provides very efficient performance. However, they are also modular, so that new functionality can be dynamically added to the kernel. Windows is largely monolithic as well (again primarily for performance reasons), but it retains some behavior typical of microkernel systems, including providing support for separate subsystems (known as operating-system personalities) that run as user-mode processes. Windows systems also provide support for dynamically loadable kernel modules.
+* Other exemples for Hybrid OS are Mac OS X, iOS and Android.</t>
+  </si>
+  <si>
+    <t>Failure Analysis</t>
+  </si>
+  <si>
+    <t>* A failure in the kernel is called a crash.When a crash occurs, error information is saved to a log file, and the memory state is saved to a crash dump.</t>
+  </si>
+  <si>
+    <t>Performance Tuning</t>
+  </si>
+  <si>
+    <t>* OS measures system behavior by producing "trace listings"  of system behavior. All interesting events are logged with their time and important
+parameters and are written to a file. Later, an analysis program can process the log file to determine system performance and to identify bottlenecks and inefficiencies.
+* Usageof "top" command in linux / unix like systems.
+* A new generation of kernel-enabled performance analysis tools has made significant improvements in how this goal can be achieved.</t>
+  </si>
+  <si>
+    <t>DTrace</t>
   </si>
 </sst>
 </file>
@@ -2101,8 +2200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2447,10 +2546,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="64.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2578,14 +2677,111 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>103</v>
       </c>
+      <c r="B15" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="390" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="375" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>126</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/OperatingSystem/OperatingSystemConceptsHighLevelChart.xlsx
+++ b/OperatingSystem/OperatingSystemConceptsHighLevelChart.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VijayBI\GitHubCom\VBI\OperatingSystem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBI\SCM\GitHubCom\VBI\OperatingSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20295" windowHeight="8445" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20292" windowHeight="8448" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -2105,16 +2105,16 @@
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="46" style="1" customWidth="1"/>
-    <col min="2" max="2" width="52.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="56.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.7109375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="52.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="56.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="1" t="s">
@@ -2138,7 +2138,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -2147,7 +2147,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -2156,7 +2156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="1" t="s">
         <v>10</v>
@@ -2176,7 +2176,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="1" t="s">
         <v>11</v>
@@ -2185,7 +2185,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="1" t="s">
         <v>22</v>
@@ -2213,7 +2213,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -2237,13 +2237,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="1" t="s">
         <v>31</v>
@@ -2252,13 +2252,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="375" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="375" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>36</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="1" t="s">
         <v>39</v>
@@ -2286,7 +2286,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="1" t="s">
         <v>41</v>
@@ -2295,7 +2295,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="1" t="s">
         <v>43</v>
@@ -2304,7 +2304,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>50</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="1" t="s">
         <v>47</v>
@@ -2324,7 +2324,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="405" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="360" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="1" t="s">
         <v>49</v>
@@ -2333,7 +2333,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="1" t="s">
         <v>52</v>
@@ -2342,7 +2342,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="1" t="s">
         <v>54</v>
@@ -2351,7 +2351,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="1" t="s">
         <v>56</v>
@@ -2360,7 +2360,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="255" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="1" t="s">
         <v>58</v>
@@ -2369,7 +2369,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="1" t="s">
         <v>60</v>
@@ -2378,7 +2378,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="225" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>62</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="300" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="1" t="s">
         <v>65</v>
@@ -2398,7 +2398,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="1" t="s">
         <v>68</v>
@@ -2407,7 +2407,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="1" t="s">
         <v>69</v>
@@ -2416,12 +2416,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="315" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>73</v>
       </c>
@@ -2450,20 +2450,20 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="64.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="64.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="64.7109375" style="2"/>
+    <col min="1" max="16384" width="64.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>75</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="285" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>76</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>79</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>81</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>83</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="403.2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>86</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="2" t="s">
         <v>89</v>
@@ -2526,7 +2526,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="285" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="216" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="2" t="s">
         <v>91</v>
@@ -2535,7 +2535,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="345" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="288" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
         <v>93</v>
@@ -2544,7 +2544,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
         <v>95</v>
@@ -2553,7 +2553,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="2" t="s">
         <v>97</v>
@@ -2562,7 +2562,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>99</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>101</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>103</v>
       </c>

--- a/OperatingSystem/OperatingSystemConceptsHighLevelChart.xlsx
+++ b/OperatingSystem/OperatingSystemConceptsHighLevelChart.xlsx
@@ -2549,7 +2549,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="64.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/OperatingSystem/OperatingSystemConceptsHighLevelChart.xlsx
+++ b/OperatingSystem/OperatingSystemConceptsHighLevelChart.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VijayBI\GitHubCom\VBI\OperatingSystem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBI\SCM\GitHubCom\VBI\OperatingSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20295" windowHeight="8445" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20292" windowHeight="8448" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
     <sheet name="OS Structures" sheetId="2" r:id="rId2"/>
+    <sheet name="ProcessManagement" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>Computer-System Operation</t>
   </si>
@@ -1816,9 +1817,6 @@
     <t>Modules</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>* Perhaps the best current methodology for operating-system design involves using loadable kernel modules.
 * Here, the kernel has a set of core components and links in additional services via modules, either at boot time or during run time. This type of design is common in modern implementations of UNIX, such as Solaris, Linux, and Mac OS X, as well as Windows.
 * Linux also uses loadable kernel modules, primarily for supporting device drivers and file systems.</t>
@@ -1848,6 +1846,33 @@
   </si>
   <si>
     <t>DTrace</t>
+  </si>
+  <si>
+    <t>* Not gone though indepth.</t>
+  </si>
+  <si>
+    <t>OS Debugging</t>
+  </si>
+  <si>
+    <t>OS Generation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* The system must then be configured or generated for each specific computer site, a process sometimes known as system generation SYSGEN.
+* </t>
+  </si>
+  <si>
+    <t>System Boot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*  The procedure of starting a computer by loading the kernel is known as booting the system.
+* On most computer systems, a small piece of code known as the bootstrap program or bootstrap loader locates the kernel, loads it into main memory, and starts its execution.
+* </t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>* Read it again and again.</t>
   </si>
 </sst>
 </file>
@@ -2204,16 +2229,16 @@
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="46" style="1" customWidth="1"/>
-    <col min="2" max="2" width="52.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="56.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.7109375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="52.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="56.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -2227,7 +2252,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="1" t="s">
@@ -2237,7 +2262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -2246,7 +2271,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -2255,7 +2280,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -2266,7 +2291,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="1" t="s">
         <v>10</v>
@@ -2275,7 +2300,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="1" t="s">
         <v>11</v>
@@ -2284,7 +2309,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -2292,7 +2317,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -2303,7 +2328,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="1" t="s">
         <v>22</v>
@@ -2312,7 +2337,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -2320,7 +2345,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -2328,7 +2353,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -2336,13 +2361,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="1" t="s">
         <v>31</v>
@@ -2351,13 +2376,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="375" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -2365,7 +2390,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="375" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>36</v>
       </c>
@@ -2376,7 +2401,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="1" t="s">
         <v>39</v>
@@ -2385,7 +2410,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="1" t="s">
         <v>41</v>
@@ -2394,7 +2419,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="1" t="s">
         <v>43</v>
@@ -2403,7 +2428,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>50</v>
       </c>
@@ -2414,7 +2439,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="1" t="s">
         <v>47</v>
@@ -2423,7 +2448,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="405" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="360" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="1" t="s">
         <v>49</v>
@@ -2432,7 +2457,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="1" t="s">
         <v>52</v>
@@ -2441,7 +2466,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="1" t="s">
         <v>54</v>
@@ -2450,7 +2475,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="1" t="s">
         <v>56</v>
@@ -2459,7 +2484,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="255" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="1" t="s">
         <v>58</v>
@@ -2468,7 +2493,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="1" t="s">
         <v>60</v>
@@ -2477,7 +2502,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="225" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>62</v>
       </c>
@@ -2488,7 +2513,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="300" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="1" t="s">
         <v>65</v>
@@ -2497,7 +2522,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="1" t="s">
         <v>68</v>
@@ -2506,7 +2531,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="1" t="s">
         <v>69</v>
@@ -2515,12 +2540,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="315" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>73</v>
       </c>
@@ -2546,23 +2571,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="64.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="64.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="64.7109375" style="2"/>
+    <col min="1" max="16384" width="64.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>75</v>
       </c>
@@ -2570,7 +2595,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="285" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>76</v>
       </c>
@@ -2581,7 +2606,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>79</v>
       </c>
@@ -2589,7 +2614,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>81</v>
       </c>
@@ -2597,7 +2622,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>83</v>
       </c>
@@ -2605,7 +2630,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="403.2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>86</v>
       </c>
@@ -2616,7 +2641,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="2" t="s">
         <v>89</v>
@@ -2625,7 +2650,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="285" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="216" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="2" t="s">
         <v>91</v>
@@ -2634,7 +2659,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="345" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="288" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
         <v>93</v>
@@ -2643,7 +2668,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
         <v>95</v>
@@ -2652,7 +2677,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="2" t="s">
         <v>97</v>
@@ -2661,7 +2686,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>99</v>
       </c>
@@ -2669,7 +2694,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>101</v>
       </c>
@@ -2677,7 +2702,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>103</v>
       </c>
@@ -2688,7 +2713,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="2" t="s">
         <v>106</v>
@@ -2697,7 +2722,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="390" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="360" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="2" t="s">
         <v>108</v>
@@ -2706,7 +2731,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>110</v>
       </c>
@@ -2717,7 +2742,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
         <v>113</v>
@@ -2726,7 +2751,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="375" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="2" t="s">
         <v>115</v>
@@ -2735,55 +2760,97 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="2" t="s">
+    </row>
+    <row r="24" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="2" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
+      <c r="B25" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>126</v>
       </c>
     </row>
+    <row r="26" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A7:A12"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A23:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/OperatingSystem/OperatingSystemConceptsHighLevelChart.xlsx
+++ b/OperatingSystem/OperatingSystemConceptsHighLevelChart.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
     <t>Computer-System Operation</t>
   </si>
@@ -1873,6 +1873,94 @@
   </si>
   <si>
     <t>* Read it again and again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* A Process is a Unit of Work in modern time-sharing system.
+* By switching the CPU between processes, the OS can make the computer more productive.
+* </t>
+  </si>
+  <si>
+    <t>Process Concept</t>
+  </si>
+  <si>
+    <t>The Process</t>
+  </si>
+  <si>
+    <t>* During program execution as a Process, the program code part is known as "Text Section".
+* And the current activity of a process can be represented by the value of the "Program Counter" and the content's of "Processor's Registers". 
+* A process generally also includes the "process stack", which contains temporary data (such as function parameters, return addresses, and local variables) and a "data section", which
+contains global variables. A process may also include a "heap", which is memory that is dynamically allocated during process run time.
+* A program becomes process when an executable program  file loads to memory.
+* Note that a process itself can be an execution environment for other code. The Java programming environment provides a good example. In most circumstances, an executable Java program is executed within the Java virtual machine (JVM). The JVM executes as a process that interprets the loaded Java
+code and takes actions (via native machine instructions) on behalf of that code.</t>
+  </si>
+  <si>
+    <t>Process State</t>
+  </si>
+  <si>
+    <t>Process Cotrol Block</t>
+  </si>
+  <si>
+    <t>Threads</t>
+  </si>
+  <si>
+    <t>Process Scheduling</t>
+  </si>
+  <si>
+    <t>Scheduling Queues</t>
+  </si>
+  <si>
+    <t>Schedulers</t>
+  </si>
+  <si>
+    <t>Context Switch</t>
+  </si>
+  <si>
+    <t>Operations on Processes</t>
+  </si>
+  <si>
+    <t>Process Creation</t>
+  </si>
+  <si>
+    <t>Process Termination</t>
+  </si>
+  <si>
+    <t>Interprocess Communication</t>
+  </si>
+  <si>
+    <t>Examples of IPC Systems</t>
+  </si>
+  <si>
+    <t>* As a process executes, it changes state. The state of a process is defined in part by the current activity of that process. A process may be in one of the following states:
+• New. The process is being created.
+• Running. Instructions are being executed.
+• Waiting. The process is waiting for some event to occur (such as an I/O
+completion or reception of a signal).
+• Ready. The process is waiting to be assigned to a processor.
+• Terminated. The process has finished execution.
+* It is important to realize that only one process can be running on any processor at any instant. Many processes may be ready and waiting, however.</t>
+  </si>
+  <si>
+    <t>* Each process is represented in the operating system by a process control block (PCB)—also called a task control block.
+* It contains many pieces of information associated with a specific process, including…
+a) Process State
+b) Program Cpunter: indicates the address of the next instruction to be executed for this process.
+c) CPU Registers: like accumulators, index registers, stack pointers, general-purpose registers and condition code information. Along with the program counter, this state information must be saved when an interrupt occurs, to allow the process to be continued correctly afterward
+d) CPU-Scheduling information
+e) Memory Management Information.
+f) Accounting information
+g) I/O status information</t>
+  </si>
+  <si>
+    <t>* process is a program that performs a single thread of execution. For example, when a process is running a word-processor program, a single thread of instructions is being executed.
+* This single thread of control allows the process to perform only one task at a time. The user cannot simultaneously type in characters and run the spell checker within the same process, for example.
+* Multi threads of execution is beneficial on Multicore systems, where multiple threads can run in parallel.</t>
+  </si>
+  <si>
+    <t>1) A Real example for Single thread of execution and Multiple Threads of Execution using Java Program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Explore more about PCB structure i.e. task_struct in Linux OS. </t>
   </si>
 </sst>
 </file>
@@ -1929,10 +2017,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2225,8 +2316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2239,10 +2330,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2253,8 +2344,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2263,7 +2354,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
+      <c r="A3" s="4"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2272,7 +2363,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2281,7 +2372,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2292,7 +2383,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -2301,7 +2392,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="374.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
@@ -2318,7 +2409,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2329,7 +2420,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
@@ -2354,7 +2445,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2362,13 +2453,13 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="144" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
         <v>31</v>
       </c>
@@ -2377,7 +2468,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
         <v>33</v>
       </c>
@@ -2391,7 +2482,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="316.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2402,7 +2493,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
+      <c r="A19" s="4"/>
       <c r="B19" s="1" t="s">
         <v>39</v>
       </c>
@@ -2411,7 +2502,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
+      <c r="A20" s="4"/>
       <c r="B20" s="1" t="s">
         <v>41</v>
       </c>
@@ -2420,7 +2511,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
+      <c r="A21" s="4"/>
       <c r="B21" s="1" t="s">
         <v>43</v>
       </c>
@@ -2429,7 +2520,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -2440,7 +2531,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
+      <c r="A23" s="4"/>
       <c r="B23" s="1" t="s">
         <v>47</v>
       </c>
@@ -2449,7 +2540,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="360" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
+      <c r="A24" s="4"/>
       <c r="B24" s="1" t="s">
         <v>49</v>
       </c>
@@ -2458,7 +2549,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
+      <c r="A25" s="4"/>
       <c r="B25" s="1" t="s">
         <v>52</v>
       </c>
@@ -2467,7 +2558,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="388.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
+      <c r="A26" s="4"/>
       <c r="B26" s="1" t="s">
         <v>54</v>
       </c>
@@ -2476,7 +2567,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
+      <c r="A27" s="4"/>
       <c r="B27" s="1" t="s">
         <v>56</v>
       </c>
@@ -2485,7 +2576,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
+      <c r="A28" s="4"/>
       <c r="B28" s="1" t="s">
         <v>58</v>
       </c>
@@ -2494,7 +2585,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
+      <c r="A29" s="4"/>
       <c r="B29" s="1" t="s">
         <v>60</v>
       </c>
@@ -2503,7 +2594,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2514,7 +2605,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
+      <c r="A31" s="4"/>
       <c r="B31" s="1" t="s">
         <v>65</v>
       </c>
@@ -2523,7 +2614,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="3"/>
+      <c r="A32" s="4"/>
       <c r="B32" s="1" t="s">
         <v>68</v>
       </c>
@@ -2532,7 +2623,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
+      <c r="A33" s="4"/>
       <c r="B33" s="1" t="s">
         <v>69</v>
       </c>
@@ -2573,9 +2664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
-    </sheetView>
+    <sheetView topLeftCell="A34" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="64.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2631,7 +2720,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="403.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>86</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2642,7 +2731,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="2" t="s">
         <v>89</v>
       </c>
@@ -2651,7 +2740,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="216" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="2" t="s">
         <v>91</v>
       </c>
@@ -2660,7 +2749,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="288" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="2" t="s">
         <v>93</v>
       </c>
@@ -2669,7 +2758,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="2" t="s">
         <v>95</v>
       </c>
@@ -2678,7 +2767,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
         <v>97</v>
       </c>
@@ -2703,7 +2792,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>103</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2714,7 +2803,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
+      <c r="A16" s="5"/>
       <c r="B16" s="2" t="s">
         <v>106</v>
       </c>
@@ -2723,7 +2812,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="360" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="2" t="s">
         <v>108</v>
       </c>
@@ -2732,7 +2821,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>110</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -2743,7 +2832,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
+      <c r="A19" s="5"/>
       <c r="B19" s="2" t="s">
         <v>113</v>
       </c>
@@ -2752,7 +2841,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="316.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
+      <c r="A20" s="5"/>
       <c r="B20" s="2" t="s">
         <v>115</v>
       </c>
@@ -2761,7 +2850,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
+      <c r="A21" s="5"/>
       <c r="B21" s="2" t="s">
         <v>117</v>
       </c>
@@ -2770,7 +2859,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
+      <c r="A22" s="5"/>
       <c r="B22" s="2" t="s">
         <v>119</v>
       </c>
@@ -2779,7 +2868,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="5" t="s">
         <v>127</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2790,7 +2879,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
+      <c r="A24" s="5"/>
       <c r="B24" s="2" t="s">
         <v>123</v>
       </c>
@@ -2799,7 +2888,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
+      <c r="A25" s="5"/>
       <c r="B25" s="2" t="s">
         <v>125</v>
       </c>
@@ -2845,12 +2934,117 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="57.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="52.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="3"/>
+    <col min="5" max="5" width="41.109375" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="288" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/OperatingSystem/OperatingSystemConceptsHighLevelChart.xlsx
+++ b/OperatingSystem/OperatingSystemConceptsHighLevelChart.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
   <si>
     <t>Computer-System Operation</t>
   </si>
@@ -1904,9 +1904,6 @@
     <t>Threads</t>
   </si>
   <si>
-    <t>Process Scheduling</t>
-  </si>
-  <si>
     <t>Scheduling Queues</t>
   </si>
   <si>
@@ -1916,19 +1913,10 @@
     <t>Context Switch</t>
   </si>
   <si>
-    <t>Operations on Processes</t>
-  </si>
-  <si>
     <t>Process Creation</t>
   </si>
   <si>
     <t>Process Termination</t>
-  </si>
-  <si>
-    <t>Interprocess Communication</t>
-  </si>
-  <si>
-    <t>Examples of IPC Systems</t>
   </si>
   <si>
     <t>* As a process executes, it changes state. The state of a process is defined in part by the current activity of that process. A process may be in one of the following states:
@@ -1961,6 +1949,661 @@
   </si>
   <si>
     <t xml:space="preserve">1) Explore more about PCB structure i.e. task_struct in Linux OS. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Process Scheduling:
+To meet time-sharig objective the process scheduler selects an available process for program execution on CPU. This entire process intern meets objective of Multiprogramming.
+</t>
+  </si>
+  <si>
+    <t>* If there are more processes, the rest will have to wait until the CPU is free and can be rescheduled in single-processor system using "Scheduling Queues" mechanism.
+* Job Queue: Consists all the processes (as n when we execute programs and uploaded to main memory) in the OS.
+* Ready Queue: The processes which are residing on main memory are ready and waiting to execute are kept in linked list called "Ready Queue". A ready-queue header contains pointers to the first and final PCBs in the list. Each PCB includes a pointer field that points to the next PCB in the ready queue.
+* Device Queue: When a process is allocated the CPU, it executes for a while and eventually quits, is interrupted, or waits for the occurrence of a particular event, such as the completion of an I/O request. Suppose the process makes an I/O request to a shared device, such as a disk. Since there are many processes in the system, the disk may be busy with the I/O request of some other process. The process therefore may have to wait for the disk. The list of processes waiting for a particular I/O device is called a device queue. Each device has its own device queue.
+* Queueing Diagram: A common representation of process scheduling is Queueing Diagram.
+* A new process is initially put in the ready queue. It waits there until it is selected for execution, or dispatched. Once the process is allocated the CPU and is executing, one of several events could occur:
+--&gt; The process could issue an I/O request and then be placed in an I/O queue.
+--&gt; The process could create a new child process and wait for the child’s termination.
+--&gt; The process could be removed forcibly from the CPU, as a result of an interrupt, and be put back in the ready queue.
+  In the first two cases, the process eventually switches fromthe waiting state to the ready state and is then put back in the ready queue. A process continues this cycle until it terminates, at which time it is removed from all queues and has its PCB and resources deallocated.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* As process migrates among the various scheduling queues throughout its lifetime. The OS must select, for scheduling purposes, processes from these queues in some fashion. The selection process is carried out by the appropriate scheduler.
+* W.r.t Batch System: Here processes are spooled to a mass-storage device (typically a disk), where they are kept for later execution. The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>long-term scheduler, or job
+scheduler</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, selects processes from this pool and loads them into memory for execution. Then Short-term scheduler or CPU Scheduler selects from among the processes that are new and ready to execute and allocate the CPU to one of them.
+* The primaey distiction between these two schedulers lies in frequency of execution. (go through the text for example).
+* The long-term scheduler controls the degree of multiprogramming (the number of processes in memory). If the degree of multiprogramming is stable, then the average rate of
+process creation must be equal to the average departure rate of processes leaving the system(i.e. from main memory to CPU). Thus, the long-term scheduler may need to be invoked only when a process leaves the system. Because of the longer interval between executions, the long-term scheduler can afford to take more time to decide which process should be selected for execution.
+* It is important that the long-term scheduler make a careful selection. In general, most processes can be described as either I/O bound or CPU bound. An I/O-bound process is one that spends more of its time doing I/O than it spends doing computations. A CPU-bound process, in contrast, generates
+I/O requests infrequently, using more of its time doing computations. It is important that the long-term scheduler select a good process mix of I/O-bound and CPU-bound processes. If all processes are I/O bound, the ready queue will
+almost always be empty, and the short-term scheduler will have little to do. If all processes are CPU bound, the I/O waiting queue will almost always be empty, devices will go unused, and again the system will be unbalanced. The system with the best performance will thus have a combination of CPU-bound
+and I/O-bound processes.
+* W.r.t time-sharing systems: Some operating systems, such as time-sharing systems, may introduce an additional, intermediate level of scheduling. This medium-term scheduler is diagrammed in Figure 3.7. The key idea behind a medium-term scheduler is
+that sometimes it can be advantageous to remove a process from memory (and from active contention for the CPU) and thus reduce the degree of multiprogramming. Later, the process can be reintroduced into memory, and its execution can be continued where it left off. This scheme is called swapping.
+The process is swapped out, and is later swapped in, by the medium-term scheduler. Swapping may be necessary to improve the process mix or because a change in memory requirements has overcommitted available memory, requiring memory to be freed up.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">* When an interrupt occurs, the system needs to save the current context of the process running on the CPU so that
+it can restore that context when its processing is done, essentially suspending the process and then resuming it.
+*The context is represented in the PCB of the process. It includes the value of the CPU registers, the process state and memory-management information.
+* Generically, we perform a state save of the current state of the CPU, be it in kernel or user mode, and then a state restore to resume operations.
+* Context Switch: Switching the CPU to another process requires performing a state save of the current process and a state restore of a different process. When a context switch occurs, the kernel saves the context of the old process in its PCB and loads the saved context of the new process scheduled to run. Context-switch time is pure overhead, because the system
+does no useful work while switching.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Try to achive user application multitasking services in Android OS. (Background Application service run).
+</t>
+  </si>
+  <si>
+    <t>Operations on Processes
+This section involves mechanism of Process Creation and Process Termination.</t>
+  </si>
+  <si>
+    <t>1) As we know "init" process is root parent process for all user processes and will be create while system booting takes place. W.r.t it how do we configure init process program with user process program or how to create user process with help of init process while system rebooting.
+2) examples to illustrate creating new process i.e. parent --&gt; child using fork(), exec() and wait() system calls in Linux OS. when a) Child process is a duplicate of parent process and b) As child process has new program loaded into it.</t>
+  </si>
+  <si>
+    <t>* The pid provides a unique value for each process in the system, and it can be used as an index to access various attributes of a process within the kernel.
+* In general, when a process creates a child process, that child process will need certain resources (CPU time, memory, files, I/O devices) to accomplish its task. A child process may be able to obtain its resources directly from the operating system, or it may be constrained to a subset of the resources of the parent process. The parent may have to partition its resources among
+its children, or it may be able to share some resources (such as memory or files) among several of its children. Restricting a child process to a subset of the parent’s resources prevents any process from overloading the system by creating too many child processes.
+* In addition to supplying various physical and logical resources, the parent process may pass along initialization data (input) to the child process.
+* When a process creates a new process, two possibilities for execution exist:
+1) The parent continues to execute concurrently with its children.
+2) The parent waits until some or all of its children have terminated.
+* There are also two address-space possibilities for the new process:
+1) The child process is a duplicate of the parent process (it has the same program and data as the parent).
+2) The child process has a new program loaded into it.</t>
+  </si>
+  <si>
+    <r>
+      <t>* Following are the conditions to terminate processes...
+--&gt; A process terminates when it finishes executing its final statement and asks the operating system to delete it by using the exit() system call. At that point, the process may return a status value (typically an integer) to its parent process (via the wait() system call). All the resources of the process—including
+physical and virtual memory, open files, and I/O buffers—are deallocated by the operating system.
+--&gt; A process can cause the termination of another process via an appropriate system call (for example, TerminateProcess() inWindows). Usually, such a system call can be invoked only by the parent of the process that is to be terminated. Note that a parent needs to know the identities of its children if it is to terminate them. Thus, when one process creates a new process, the identity of the newly created process is passed to the parent.
+A parent may terminate the execution of one of its children for a variety of reasons, such as these:
+1) The child has exceeded its usage of some of the resources that it has been allocated. (To determine whether this has occurred, the parent must have a mechanism to inspect the state of its children.)
+2) The task assigned to the child is no longer required.
+3) The parent is exiting, and the operating system does not allow a child to continue if its parent terminates. In such systems, if a process terminates (either normally or abnormally), then all its children must also be terminated. This phenomenon, referred to as</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cascading termination</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, is normally initiated by the operating system.
+--&gt; A parent process may wait for the termination of a child process by using the wait() system call. The wait() system call is passed a parameter that allows the parent to obtain the exit status of the child. This system call also returns the process identifier of the terminated child so that the parent can tell
+which of its children has terminated
+* When a process terminates, its resources are deallocated by the operating system. However, its entry in the process table must remain there until the parent calls wait(), because the process table contains the process’s exit status. A process that has terminated, but whose parent has not yet called wait(), is
+known as a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zombie process</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. All processes transition to this state when they terminate, but generally they exist as zombies only briefly. Once the parent calls wait(), the process identifier of the zombie process and its entry in the process table are released. Now consider what would happen if a parent did not invoke wait() and instead terminated, thereby leaving its child processes as orphans. Linux and UNIX address this scenario by assigning the init process as the new parent to orphan processes. The init process periodically invokes wait(), thereby allowing the exit status of any orphaned process to be collected and releasing the orphan’s process identifier and process-table entry.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1) An example to illustarte Zombie and Orphan process state while its removing/terminating from wait() system call in Linux.
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Interprocess Communication:
+Processes executing concurrently in the operating system may be either </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>independent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> processes or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cooperating</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> processes. A process is independent if it cannot affect or be affected by the other processes executing in the system. Any process that does not share data with any other process is independent. A process is cooperating if it can affect or be affected by the other processes executing in the system. Clearly, any process that shares data with other processes is a cooperating process.
+There are several reasons for providing an environment that allows process cooperation:
+a) Information Sharing,
+b) Computation Speedup.
+c) Modularity
+d) Convenience
+Cooperating processes require an interprocess communication (IPC) mechanism that will allow them to exchange data and information. There are two fundamental models of interprocess communication: shared memoryand message passing. In the shared-memory model, a region of memory that is shared by cooperating processes is established. Processes can then exchange information by reading and writing data to the shared region. In the message-passing model, communication takes place by means of messages exchanged between
+the cooperating processes.
+Message passing is useful for exchanging smaller amounts of data, because no conflicts need be avoided. Message passing is also easier to implement in a distributed system than shared memory. (Although there are systems that provide distributed shared memory,we do not
+consider them in this text.) Shared memory can be faster than message passing, since message-passing systems are typically implemented using system calls and thus require the more time-consuming task of kernel intervention. In shared-memory systems, system calls are required only to establish shared memory regions. Once shared memory is established, all accesses are treated as routine memory accesses, and no assistance from the kernel is required.
+Recent research on systems with several processing cores indicates that message passing provides better performance than shared memory on such systems. Shared memory suffers from cache coherency issues, which arise because shared data migrate among the several caches. As the number of processing cores on systems increases, it is possible that we will see message passing as the preferred mechanism for IPC.</t>
+    </r>
+  </si>
+  <si>
+    <t>Shared-Memory Systems</t>
+  </si>
+  <si>
+    <t>Message-Passing Systems</t>
+  </si>
+  <si>
+    <t>1) Try to implement Multiprocess approach in chrome web brower with example of servlets I had come across while practicing the Web Application development exercise. (Use Bowser, Renderer and plug-in processes)
+2) Try to implement Shared-Memory IPC usig Producer-Consumer scenarios in java/servlets. (By implementing both bounded and unbounded bufffer).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Requires communicating processes to establish a region of shared memory.
+* Typically, a shared-memory region resides in the address space of the process creating the shared-memory segment. Other processes that wish to communicate using this shared-memory segment must attach it to their address space.
+* Recall that, normally, the operating system tries to prevent one process from accessing another process’s memory. Shared memory requires that two or more processes agree to remove
+this restriction. They can then exchange information by reading and writing data in the shared areas.
+* The form of the data and the location are determined by
+these processes and are not under the operating system’s control. The processes are also responsible for ensuring that they are not writing to the same location simultaneously.
+* One solution to the producer–consumer problem uses shared memory. To allow producer and consumer processes to run concurrently, we must have available a buffer of items that can be filled by the producer and emptied by the consumer. This buffer will reside in a region of memory that is shared by the producer and consumer processes. A producer can produce one item while the consumer is consuming another item. The producer and consumer must be synchronized, so that the consumer does not try to consume an item that has not yet been produced.
+* Two types of buffers can be used. The unbounded buffer places no practical limit on the size of the buffer. The consumer may have to wait for new items, but the producer can always produce new items. The bounded buffer assumes a fixed buffer size. In this case, the consumer must wait if the buffer is empty,
+and the producer must wait if the buffer is full.
+*  The scheme requires that these processes share a region of memory and that the code for accessing and manipulating the shared memory be written explicitly by the application programmer.
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* Message passing provides a mechanism to allow processes to communicate and to synchronize their actions without sharing the same address space. It is particularly useful in a distributed environment, where the communicating processes may reside on different computers connected by a network. e.g. chating over the internet.
+* It provides atleast two operations: send(message) and receive(message).
+* Messages sent by a process can be either fixed or variable in size. If only fixed-sized messages can be sent, the system-level implementation is straightforward. This restriction, however, makes the task of programming more difficult. Conversely, variable-sized messages require a more complex system-level implementation, but the programming task becomes simpler. This is a common kind of tradeoff seen throughout operating-system design.
+* If processes P and Q want to communicate, they must send messages to and receive messages from each other: a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>communication link</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> must exist between them. This link can be implemented in a variety of ways.We are concerned here
+not with the link’s physical implementation (such as shared memory, hardware bus, or network, which are covered in Chapter 17) but rather with its logical implementation. Here are several methods for logically implementing a link and the send()/receive() operations:
+• Direct or indirect communication
+• Synchronous or asynchronous communication
+• Automatic or explicit buffering
+a) Direct and Indirect Communication
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Under direct communication</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, each process that wants to communicate must explicitly </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name the recipient or sender</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of the communication to refer to each other. And the send() and receive() primitives are defined as:
+• send(P, message)—Send a message to process P.
+• receive(Q, message)—Receive a message from process Q.
+Above defined primitives exhibits </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>symmetry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in addressing; that is, both the sender process and the receiver process must name the other to communicate.
+A variant of this scheme employs </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>asymmetry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in addressing. Here, only the sender names the recipient; the recipient is not required to name the sender. In this scheme, the send() and receive() primitives are defined as follows:
+• send(P, message)—Send a message to process P.
+• receive(id, message)—Receive a message from any process. The variable id is set to the name of the process with which communication has taken place.
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Indirect Communication link:
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The disadvantage in both of these schemes (symmetric and asymmetric) is the limited modularity of the resulting process definitions. Changing the identifier of a process may necessitate examining all other process definitions. All references to the old identifier must be found, so that they can be modified to the new identifier. In general, any such hard-coding techniques, where identifiers must be explicitly stated, are less desirable than techniques involving indirection, as described next.
+* With indirect communication, the messages are sent to and received from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mailboxes, or ports</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Amailbox can be viewed abstractly as an object into which messages can be placed by processes and fromwhich messages can be removed. Each mailbox has a unique identification.
+* A process can communicate with another process via a number of different mailboxes, but two processes can communicate only if they have a shared mailbox. The send() and receive() primitives are defined as follows:
+• send(A, message)—Send a message to mailbox A.
+• receive(A, message)—Receive a message from mailbox A.
+* A mailbox may be owned either by a process or by the operating system. If the mailbox is owned by a process (that is, the mailbox is part of the address space of the process), then we distinguish between the owner (which can only receive messages through this mailbox) and the user (which can only
+send messages to the mailbox). Since each mailbox has a unique owner, there can be no confusion about which process should receive a message sent to this mailbox. When a process that owns a mailbox terminates, the mailbox disappears. Any process that subsequently sends a message to this mailbox
+must be notified that the mailbox no longer exists.
+* In contrast, a mailbox that is owned by the operating system has an existence of its own. It is independent and is not attached to any particular process. The operating system then must provide a mechanism that allows a process to do the following:
+• Create a new mailbox.
+• Send and receive messages through the mailbox.
+• Delete a mailbox.
+The process that creates a new mailbox is that mailbox’s owner by default. Initially, the owner is the only process that can receive messages through this mailbox. However, the ownership and receiving privilege may be passed to other processes through appropriate system calls. Of course, this provision
+could result in multiple receivers for each mailbox.
+b) Synchronous or asynchronous communication links:
+Communication between processes takes place through calls to send() and receive() primitives. There are different design options for implementing each primitive. Message passing may be either</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> blocking or nonblocking</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">— also known as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>synchronous and asynchronous.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Throughout this text, you will encounter the concepts of synchronous and asynchronous behavior in relation to various operating-system algorithms.)
+• Blocking send. The sending process is blocked until the message is received by the receiving process or by the mailbox.
+• Nonblocking send. The sending process sends the message and resumes operation.
+• Blocking receive. The receiver blocks until a message is available.
+• Nonblocking receive. The receiver retrieves either a valid message or a null.
+Different combinations of send() and receive() are possible.When both send() and receive() are blocking, we have a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">rendezvous </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>between the sender and the receiver. The solution to the producer–consumer problem becomes trivial when we use blocking send() and receive() statements. The producer merely invokes the blocking send() call and waits until the
+message is delivered to either the receiver or the mailbox. Likewise, when the consumer invokes receive(), it blocks until a message is available.
+c) Automatic or explicit buffering: 
+Whether communication is direct or indirect, messages exchanged by communicating processes reside in a temporary queue. Basically, such queues can be implemented in three ways:
+• Zero capacity. The queue has a maximum length of zero; thus, the link cannot have any messageswaiting in it. In this case, the sender must block until the recipient receives the message.
+• Bounded capacity. The queue has finite length n; thus, at most n messages can reside in it. If the queue is not full when a new message is sent, the message is placed in the queue (either the message is copied or a pointer to the message is kept), and the sender can continue execution without waiting. The link’s capacity is finite, however. If the link is full, the sender must block until space is available in the queue.
+• Unbounded capacity. The queue’s length is potentially infinite; thus, any number of messages can wait in it. The sender never blocks.
+The zero-capacity case is sometimes referred to as a message system with no buffering. The other cases are referred to as systems with automatic buffering.</t>
+    </r>
+  </si>
+  <si>
+    <t>1) An example to establish communication link between two processes using direct symmetry/asymmetry schemes.
+2)  An example to establish communication link between two processes using mailbox/port schemes.
+3) Also inllustarte the communication links properties in both ditect and indirect types.
+4) More about to define an algorithm for selecting which process will receive the message.
+5) Examples to illustrate Mailbox ownership by Process and OS.
+6) Try to achive "rendezvous" state using "synchronous and asynchronous" communication links during IPC. 
+7) Try to achive message system with no buffering (Zero Capacity) and Automatic buffering (Bounded Capacity and Unbounded Capacity)</t>
+  </si>
+  <si>
+    <t>Examples of IPC Systems:</t>
+  </si>
+  <si>
+    <t>An Example: POSIX Shared Memory</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* POSIX shared memory is organized using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>memory-mapped</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>files</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, which associate the region of shared memory with a file usig following steps…
+a) A process must first create Shared-Memory Object using the shm_open() system call  as follows…
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shm_fd =  shm_open(name, O_CREAT | O_RDRW, 0666)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">;
+The first parameter specifies the name of the shared-memory object. Processes that wish to access this shared memory must refer to the object by this name. The subsequent parameters specify that the shared-memory object is to be created if it does not yet exist (O CREAT) and that the object is open for reading
+and writing (O RDRW). The last parameter establishes the directory permissions of the shared-memory object.Asuccessful call to shm open() returns an integer file descriptor for the shared-memory object.
+b) Once the object is established, the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ftruncate()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> function is used to configure the size of the object in bytes. The call ftruncate(shm fd, 4096);
+c) Finally, the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mmap()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> function establishes a memory-mapped file containing the shared-memory object. It also returns a pointer to thememory-mapped file that is used for accessing the shared-memory object.</t>
+    </r>
+  </si>
+  <si>
+    <t>1) Illustrate an exeample of IPC using POSIX API for Shared Memory with java technology as per the Producer-Consumer Description provided in text.</t>
+  </si>
+  <si>
+    <t>An Example: Mach (Message Passing)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* Most communication in Mach — including all intertask information—is carried out by messages. Messages are
+sent to and received from mailboxes, called </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ports</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in Mach.
+*</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2316,7 +2959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
@@ -2664,7 +3307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="64.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2934,10 +3577,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2972,7 +3615,7 @@
         <v>138</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
@@ -2981,68 +3624,133 @@
         <v>139</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="3" t="s">
         <v>140</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E5" s="3" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
+    <row r="8" spans="1:5" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="C9" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C10" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="B11" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>149</v>
+        <v>163</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
